--- a/审校/参考文献表格.xlsx
+++ b/审校/参考文献表格.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="17060" activeTab="1"/>
+    <workbookView windowWidth="14380" windowHeight="6780" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="脚注格式" sheetId="1" r:id="rId1"/>
     <sheet name="尾注格式" sheetId="2" r:id="rId2"/>
+    <sheet name="日本汉诗话集成" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>（日）吉田金彦：《訓点語辞典》，东京堂出版，2001年，第10页</t>
   </si>
@@ -126,6 +127,78 @@
   </si>
   <si>
     <t>中村完：《漢字百科事典》. 东京：明治書院，1996年，第109页</t>
+  </si>
+  <si>
+    <t>肖瑞峰：《日本汉诗发展史》. 长春：吉林大学出版社 , 1992年，第141页</t>
+  </si>
+  <si>
+    <t>陆侃如，冯沅君：《中国诗史》. 天津：百花文艺出版社 , 1999年，第5页</t>
+  </si>
+  <si>
+    <t>大分县教育会：《大分伟人传》，东京三省堂书店，1907年，55-56</t>
+  </si>
+  <si>
+    <t>小笠原优轩：《优轩诗话正编》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第3879页</t>
+  </si>
+  <si>
+    <t>森槐南：《参订古诗平仄论》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第3879页</t>
+  </si>
+  <si>
+    <t>古贺侗庵：《侗庵非诗话》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第5063页</t>
+  </si>
+  <si>
+    <t>小野泉藏：《社友诗律论》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第2160页</t>
+  </si>
+  <si>
+    <t>祇園南海：《诗学逢原》，池田四郎次郎编，国分高胤校阅：《日本诗话丛书》.东京：文会堂书店，1921年，第二卷，第2页</t>
+  </si>
+  <si>
+    <t>卢玄淳：《唐诗平侧考》，池田四郎次郎编，国分高胤校阅：《日本诗话丛书》.东京：文会堂书店，1921年，第二卷，第125页</t>
+  </si>
+  <si>
+    <t>长山樗园：《诗格集成》，池田四郎次郎编，国分高胤校阅：《日本诗话丛书》.东京：文会堂书店，1921年，第三卷，第381页</t>
+  </si>
+  <si>
+    <t>三浦梅园：《诗辙》，池田四郎次郎编，国分高胤校阅：《日本诗话丛书》.东京：文会堂书店，1921年，第六卷，第58页</t>
+  </si>
+  <si>
+    <t>赤泽一堂：《诗律》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第3582页</t>
+  </si>
+  <si>
+    <t>冢田大峰：《作诗质的》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第1441页</t>
+  </si>
+  <si>
+    <t>家臣人名事典編纂委员会：《三百藩家臣人名事典》，东京：新人物往来社，1988年</t>
+  </si>
+  <si>
+    <t>津阪东阳：《夜航诗话》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第1527页</t>
+  </si>
+  <si>
+    <t>东梦亭：《锄雨亭诗话》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第2857页</t>
+  </si>
+  <si>
+    <t>友野霞舟：《锦天山房诗话》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第2947页</t>
+  </si>
+  <si>
+    <t>虎关师炼：《济北诗话》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第296页</t>
+  </si>
+  <si>
+    <t>林荪坡：《梧窗诗话》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第2641页</t>
+  </si>
+  <si>
+    <t>成徳隣、桧长裕：《幼学诗韵》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第5572页</t>
+  </si>
+  <si>
+    <t>释教存：《续连珠诗格》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第2234页</t>
+  </si>
+  <si>
+    <t>市野迷庵：《诗史颦》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第1679页</t>
+  </si>
+  <si>
+    <t>森如云：《如云诗话》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第5106页</t>
+  </si>
+  <si>
+    <t>石川鸿斋：《诗法详论》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第4835页</t>
   </si>
 </sst>
 </file>
@@ -133,12 +206,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -147,6 +220,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -158,6 +238,44 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,6 +287,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -177,30 +303,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,46 +342,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -263,22 +351,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,25 +386,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,151 +560,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,24 +585,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,6 +599,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,6 +643,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -565,155 +671,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -722,28 +802,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1067,14 +1150,210 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="229" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" ht="247" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" ht="212" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" ht="125" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -1083,10 +1362,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A36"/>
+  <dimension ref="A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1094,186 +1373,7 @@
     <col min="1" max="1" width="74.5535714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" ht="36" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" ht="156" customHeight="1" spans="1:1">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" ht="36" spans="1:1">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" ht="36" spans="1:1">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
+    <row r="22" ht="156" customHeight="1"/>
   </sheetData>
   <sortState ref="A1:A36">
     <sortCondition ref="A1"/>
@@ -1281,4 +1381,126 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:1">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" ht="188" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" ht="203" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/审校/参考文献表格.xlsx
+++ b/审校/参考文献表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14380" windowHeight="6780" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="18500" windowHeight="8620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="脚注格式" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
   <si>
     <t>（日）吉田金彦：《訓点語辞典》，东京堂出版，2001年，第10页</t>
   </si>
@@ -138,6 +138,21 @@
     <t>大分县教育会：《大分伟人传》，东京三省堂书店，1907年，55-56</t>
   </si>
   <si>
+    <t>清水茂、揖斐高、大谷雅夫校注：《日本诗史·五山堂诗话》.东京：岩波书店，1991年</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 曹顺庆主编：《东方文论选》，成都：四川人民出版社 , 1996年，第774页</t>
+  </si>
+  <si>
+    <t>王晓平：《跨文化视角下的日本诗话》.《南开学报(哲社版)》，2016年，第3期</t>
+  </si>
+  <si>
+    <t>曹顺庆，李天道：《雅论与雅俗之辨》，南昌：百花洲文艺出版社 , 2009年，第1页</t>
+  </si>
+  <si>
+    <t>吴雨平：《唐诗选本的日本化阐释及其对中晚期日本汉诗创作的影响》，《江苏社会科学》，2009年，第5期</t>
+  </si>
+  <si>
     <t>小笠原优轩：《优轩诗话正编》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第3879页</t>
   </si>
   <si>
@@ -199,6 +214,84 @@
   </si>
   <si>
     <t>石川鸿斋：《诗法详论》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第4835页</t>
+  </si>
+  <si>
+    <t>三绳桂林：《诗学解蔽》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第1409页</t>
+  </si>
+  <si>
+    <t>兼康百济：《浪华诗话》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第2648页</t>
+  </si>
+  <si>
+    <t>市河宽斋：《诗烬》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第1473页</t>
+  </si>
+  <si>
+    <t>日尾省斋：《诗格勘误》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第3644页</t>
+  </si>
+  <si>
+    <t>菊池五山：《五山堂诗话》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第1733页</t>
+  </si>
+  <si>
+    <t>长野丰山：《松荫快谈》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第2680页</t>
+  </si>
+  <si>
+    <t>山本北山：《诗用虚字》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第5542页</t>
+  </si>
+  <si>
+    <t>广濑淡窗：《淡窗诗话》，池田四郎次郎编，国分高胤校阅：《日本诗话丛书》.东京：文会堂书店，1921年，第四卷，第246页</t>
+  </si>
+  <si>
+    <t>服部南郭：《南郭先生灯下书》，池田四郎次郎编，国分高胤校阅：《日本诗话丛书》.东京：文会堂书店，1921年，第一卷，第54页</t>
+  </si>
+  <si>
+    <t>山田翠雨：《翠雨轩诗话》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第5388页</t>
+  </si>
+  <si>
+    <t>大江玄圃：《盛唐诗格》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第952页</t>
+  </si>
+  <si>
+    <t>空海：《文镜秘府论》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第9页</t>
+  </si>
+  <si>
+    <t>石川丈山：《诗法正义》，池田四郎次郎编，国分高胤校阅：《日本诗话丛书》.东京：文会堂书店，1921年，第十卷，第337页</t>
+  </si>
+  <si>
+    <t>东条琴台：《幼学诗话》，池田四郎次郎编，国分高胤校阅：《日本诗话丛书》.东京：文会堂书店，1921年，第六卷，第277页</t>
+  </si>
+  <si>
+    <t>江田世恭：《在津纪事》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第1427页</t>
+  </si>
+  <si>
+    <t>源孝衡：《诗学还丹》，池田四郎次郎编，国分高胤校阅：《日本诗话丛书》.东京：文会堂书店，1921年，第二卷，第194页</t>
+  </si>
+  <si>
+    <t>西岛兰溪：《蔽帚诗话》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年</t>
+  </si>
+  <si>
+    <t>宇野士朗：《诗家声律》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第669页</t>
+  </si>
+  <si>
+    <t>中井竹山：《诗律兆》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第1241页</t>
+  </si>
+  <si>
+    <t>大洼诗佛：《诗圣堂诗话》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第1716页</t>
+  </si>
+  <si>
+    <t>加藤善庵：《柳桥诗话》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第3724页</t>
+  </si>
+  <si>
+    <t>释大典：《诗语解》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第5523页</t>
+  </si>
+  <si>
+    <t>祇園南海：《明诗评俚》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第5282页</t>
+  </si>
+  <si>
+    <t>藤良国：《诗语金声》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第5397页</t>
+  </si>
+  <si>
+    <t>武元登登庵：《古诗韵范》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第5372页</t>
+  </si>
+  <si>
+    <t>川合春川：《诗学还丹》，</t>
   </si>
 </sst>
 </file>
@@ -1150,10 +1243,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1351,6 +1444,31 @@
     <row r="39" ht="125" spans="1:1">
       <c r="A39" s="1" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="40" ht="156" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1386,117 +1504,247 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" ht="188" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" ht="203" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" ht="188" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" ht="203" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" ht="203" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/审校/参考文献表格.xlsx
+++ b/审校/参考文献表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18500" windowHeight="8620" activeTab="2"/>
+    <workbookView windowWidth="24380" windowHeight="17060"/>
   </bookViews>
   <sheets>
     <sheet name="脚注格式" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
   <si>
     <t>（日）吉田金彦：《訓点語辞典》，东京堂出版，2001年，第10页</t>
   </si>
@@ -61,6 +61,9 @@
 》. 《詞林》1992年第12期，第1-21页</t>
   </si>
   <si>
+    <t>猪口</t>
+  </si>
+  <si>
     <t>马歌东：《日本汉诗溯源比较研究》，北京：商务印书馆, 2011年，第13页</t>
   </si>
   <si>
@@ -153,6 +156,57 @@
     <t>吴雨平：《唐诗选本的日本化阐释及其对中晚期日本汉诗创作的影响》，《江苏社会科学》，2009年，第5期</t>
   </si>
   <si>
+    <t>王京钰：《概论日本汉文学中的杜甫受容》.《辽宁工学院学报(社会科学版)》，2005年，第1期</t>
+  </si>
+  <si>
+    <t>王晓平：《亚洲汉文学》，天津：天津人民出版社，2009年，第98页</t>
+  </si>
+  <si>
+    <t>张晖：《诗史》，台北：台湾学生书局有限公司, 2007年，第257-267页</t>
+  </si>
+  <si>
+    <t>小岛宪之：《國風暗黒時代の文學》，塙書房，1973年</t>
+  </si>
+  <si>
+    <t>陈福康：《日本汉文学史 上》. 上海：上海外语教育出版社, 2011年，第43页</t>
+  </si>
+  <si>
+    <t>猪口笃志：《日本汉文学史》，东京：角川书店，1984 年</t>
+  </si>
+  <si>
+    <t>绪方惟精：《日本汉文学史》，台北：正中书局，1980年，第126页</t>
+  </si>
+  <si>
+    <t>严绍璗：《日本中国学史稿》. 北京：学苑出版社, 2009年，第128页</t>
+  </si>
+  <si>
+    <t>飛山純子，《明治普通文の研究》，《日本文学》，1964年，第23期，第74-85页</t>
+  </si>
+  <si>
+    <t>（日）加藤周一 著；叶渭渠，唐月梅译. 《日本文学史序说 上》. 北京：开明出版社, 1995年</t>
+  </si>
+  <si>
+    <t>马歌东： 《日本汉诗溯源比较研究》. 北京：商务印书馆, 2011年，第13页</t>
+  </si>
+  <si>
+    <t>西乡信纲：《日本文学史》. 北京：人民文学出版社, 1978年，第46页</t>
+  </si>
+  <si>
+    <t>古桥信孝 著；徐凤，付秀梅译.：《阅读日本书系 日本文学史》. 南京：南京大学出版社, 2015年</t>
+  </si>
+  <si>
+    <t>小西甚一 著；郑清茂译：《日本文学史》. 台北：联经出版事业股份有限公司，2015年，第48页</t>
+  </si>
+  <si>
+    <t>谢六逸：《日本文学史》. 北新书局,，1929年</t>
+  </si>
+  <si>
+    <t>李庆：《日本汉学史》. 上海：上海人民出版社, 2016年，第364页.</t>
+  </si>
+  <si>
+    <t>季羡林主编：《日本文学史 近古卷 下》. 北京：昆仑出版社,  2004年，第657页</t>
+  </si>
+  <si>
     <t>小笠原优轩：《优轩诗话正编》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第3879页</t>
   </si>
   <si>
@@ -292,6 +346,18 @@
   </si>
   <si>
     <t>川合春川：《诗学还丹》，</t>
+  </si>
+  <si>
+    <t>细川十洲：《梧园诗话》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第4946页</t>
+  </si>
+  <si>
+    <t>信夫恕軒_x0008_：《明治诗话》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第5005页</t>
+  </si>
+  <si>
+    <t>大田淳轩：《淳轩诗话》，赵季，叶言材，刘畅辑校：《日本汉诗话集成》. 北京：中华书局, 2019年，第5164页</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> d</t>
   </si>
 </sst>
 </file>
@@ -299,12 +365,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -320,6 +386,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -327,8 +427,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,32 +527,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,82 +542,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -479,181 +558,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,22 +746,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,8 +764,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,17 +824,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,152 +848,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,6 +1002,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1243,13 +1331,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A45"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1316,159 +1404,247 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="229" spans="1:1">
+    <row r="14" ht="229" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="F14" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="247" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="212" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" ht="125" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" ht="156" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" ht="23.2" spans="1:1">
+      <c r="A46" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1504,247 +1680,267 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A47"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" ht="188" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" ht="203" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" ht="188" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" ht="203" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" ht="203" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
